--- a/target/test-classes/testdata/ZigwheelsSheet.xlsx
+++ b/target/test-classes/testdata/ZigwheelsSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2421291\eclipse-workspace\ZigWheels\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74CCB5F-5AD7-4F45-9023-3077A29E3F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17ECDC4-B99A-44D9-85DB-4A09DED807EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{1CBC429B-6360-43D2-B82A-86186CA24960}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CBC429B-6360-43D2-B82A-86186CA24960}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>To Search</t>
   </si>
   <si>
-    <t>honda bikes</t>
+    <t>Upcoming Honda</t>
+  </si>
+  <si>
+    <t>Used Cars In Chen</t>
   </si>
 </sst>
 </file>
@@ -420,25 +423,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07FDE66-A42F-438C-B6D2-13ED4C8FD9FA}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
